--- a/00硬件/06北京琦安_无锡尚瑞_电气技术有限公司/电机系统通讯协议v10.0.xlsx
+++ b/00硬件/06北京琦安_无锡尚瑞_电气技术有限公司/电机系统通讯协议v10.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="9465" yWindow="525" windowWidth="18360" windowHeight="10650" tabRatio="584"/>
@@ -10,7 +10,7 @@
     <sheet name="通信协议" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -95,6 +95,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：报错且不工作</t>
@@ -250,6 +251,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10000rpm</t>
@@ -302,6 +304,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>反馈给VCU的状态报文</t>
@@ -325,6 +328,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_MorCavity_Temp</t>
@@ -348,6 +352,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_MorCtrl_Temp</t>
@@ -421,6 +426,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：正转电动1
@@ -440,6 +446,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：反转电动3
@@ -481,11 +488,13 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -516,11 +525,13 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -988,6 +999,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,36 +1049,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -1077,74 +1088,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1161,7 +1104,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1443,7 +1386,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1457,22 +1400,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="74"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67"/>
     </row>
     <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -1519,22 +1462,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="64">
         <v>10</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="63" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1563,12 +1506,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1595,12 +1538,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1625,12 +1568,12 @@
       <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="2"/>
       <c r="H6" s="57" t="s">
         <v>71</v>
@@ -1645,12 +1588,12 @@
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1677,12 +1620,12 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1709,12 +1652,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="2"/>
       <c r="H9" s="58" t="s">
         <v>71</v>
@@ -1729,12 +1672,12 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="2" t="s">
         <v>72</v>
       </c>
@@ -1759,22 +1702,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="71">
         <v>20</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="71">
         <v>8</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="72" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="47" t="s">
@@ -1803,12 +1746,12 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="47" t="s">
         <v>47</v>
       </c>
@@ -1833,12 +1776,12 @@
       <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="47" t="s">
         <v>48</v>
       </c>
@@ -1863,12 +1806,12 @@
       <c r="N13" s="46"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="47" t="s">
         <v>49</v>
       </c>
@@ -1893,22 +1836,22 @@
       <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="79">
         <v>50</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="79">
         <v>8</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="73" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -1935,12 +1878,12 @@
       <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="64"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="20" t="s">
         <v>65</v>
       </c>
@@ -1965,12 +1908,12 @@
       <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="64"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="42" t="s">
         <v>66</v>
       </c>
@@ -1995,12 +1938,12 @@
       <c r="N17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="64"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="20" t="s">
         <v>67</v>
       </c>
@@ -2025,12 +1968,12 @@
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="64"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="20" t="s">
         <v>68</v>
       </c>
@@ -2055,6 +1998,12 @@
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="D3:D10"/>
     <mergeCell ref="E3:E10"/>
@@ -2068,12 +2017,6 @@
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
